--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc207_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7168" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +362,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +409,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -859,10 +883,10 @@
       <c r="I25">
         <f>((C25-C24)^2+(D25- D24)^2)^.5</f>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25" s="3" t="s">
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L25" t="n">
@@ -906,28 +930,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="3">
+      <c r="A27" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B27" t="s" s="3">
+      <c r="B27" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s" s="3">
+      <c r="C27" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E27" t="s" s="3">
+      <c r="E27" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F27" t="s" s="3">
+      <c r="F27" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G27" t="s" s="3">
+      <c r="G27" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H27" t="s" s="3">
+      <c r="H27" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -952,28 +976,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="s" s="3">
+      <c r="B29" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C29" t="s" s="3">
+      <c r="C29" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D29" t="s" s="3">
+      <c r="D29" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E29" t="s" s="3">
+      <c r="E29" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="3">
+      <c r="F29" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G29" t="s" s="3">
+      <c r="G29" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H29" t="s" s="3">
+      <c r="H29" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I29" t="s" s="3">
+      <c r="I29" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1032,10 +1056,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="3" t="s">
+      <c r="J31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1079,28 +1103,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="3">
+      <c r="C33" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1125,28 +1149,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1205,10 +1229,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="3" t="s">
+      <c r="J37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1252,28 +1276,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="3">
+      <c r="A39" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="3">
+      <c r="B39" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="3">
+      <c r="C39" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="3">
+      <c r="G39" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1298,28 +1322,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="3">
+      <c r="I41" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1639,10 +1663,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="3" t="s">
+      <c r="J52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1686,28 +1710,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="3">
+      <c r="A54" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="3">
+      <c r="C54" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1732,28 +1756,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="3">
+      <c r="B56" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="3">
+      <c r="C56" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="3">
+      <c r="D56" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="3">
+      <c r="E56" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="3">
+      <c r="F56" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="3">
+      <c r="G56" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="3">
+      <c r="H56" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="3">
+      <c r="I56" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2276,10 +2300,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="3" t="s">
+      <c r="J74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2323,28 +2347,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="3">
+      <c r="A76" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="3">
+      <c r="B76" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="3">
+      <c r="C76" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="3">
+      <c r="E76" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="3">
+      <c r="F76" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="3">
+      <c r="G76" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="3">
+      <c r="H76" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2369,28 +2393,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="3">
+      <c r="C78" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="3">
+      <c r="D78" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="3">
+      <c r="I78" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2449,10 +2473,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="3" t="s">
+      <c r="J80" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2496,28 +2520,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="3">
+      <c r="A82" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="3">
+      <c r="C82" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2542,28 +2566,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="3">
+      <c r="B84" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="3">
+      <c r="C84" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="3">
+      <c r="D84" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="3">
+      <c r="E84" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="3">
+      <c r="F84" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="3">
+      <c r="G84" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="3">
+      <c r="H84" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="3">
+      <c r="I84" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2622,10 +2646,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="3" t="s">
+      <c r="J86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2669,28 +2693,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="3">
+      <c r="A88" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="3">
+      <c r="B88" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="3">
+      <c r="C88" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="3">
+      <c r="E88" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="3">
+      <c r="F88" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="3">
+      <c r="G88" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="3">
+      <c r="H88" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2715,28 +2739,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="3">
+      <c r="B90" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="3">
+      <c r="C90" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="3">
+      <c r="D90" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="3">
+      <c r="E90" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="3">
+      <c r="F90" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="3">
+      <c r="G90" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="3">
+      <c r="H90" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="3">
+      <c r="I90" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2795,10 +2819,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="J92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2842,28 +2866,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="3">
+      <c r="C94" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2888,28 +2912,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2968,10 +2992,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K98" s="3" t="s">
+      <c r="J98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3015,28 +3039,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="3">
+      <c r="A100" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="3">
+      <c r="B100" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s" s="3">
+      <c r="C100" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="3">
+      <c r="E100" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="3">
+      <c r="F100" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="3">
+      <c r="G100" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="3">
+      <c r="H100" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3061,28 +3085,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="3">
+      <c r="B102" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="3">
+      <c r="C102" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="3">
+      <c r="D102" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="3">
+      <c r="E102" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="3">
+      <c r="F102" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="3">
+      <c r="G102" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="3">
+      <c r="H102" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="3">
+      <c r="I102" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3141,10 +3165,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="J104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3188,28 +3212,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="3">
+      <c r="C106" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3234,28 +3258,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3314,10 +3338,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="J110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3361,28 +3385,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="A112" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="3">
+      <c r="C112" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3407,28 +3431,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="3">
+      <c r="I114" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3487,10 +3511,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3" t="s">
+      <c r="J116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3534,28 +3558,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="A118" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="3">
+      <c r="C118" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3580,28 +3604,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="3">
+      <c r="I120" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3660,10 +3684,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3" t="s">
+      <c r="J122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3707,28 +3731,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="3">
+      <c r="C124" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3753,28 +3777,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3833,10 +3857,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3880,28 +3904,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3926,28 +3950,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4006,10 +4030,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4053,28 +4077,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4099,28 +4123,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4179,10 +4203,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="3" t="s">
+      <c r="J140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4226,28 +4250,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="3">
+      <c r="C142" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4272,28 +4296,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4352,10 +4376,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="3" t="s">
+      <c r="J146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4399,28 +4423,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="3">
+      <c r="A148" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="3">
+      <c r="C148" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4445,28 +4469,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="3">
+      <c r="C150" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="3">
+      <c r="D150" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="3">
+      <c r="I150" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4525,10 +4549,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4572,28 +4596,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4618,28 +4642,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4901,10 +4925,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K165" s="3" t="s">
+      <c r="J165" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4948,28 +4972,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="3">
+      <c r="A167" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D167" t="s" s="3">
+      <c r="C167" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D167" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4994,28 +5018,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="3">
+      <c r="B169" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="3">
+      <c r="C169" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="3">
+      <c r="D169" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="3">
+      <c r="E169" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="3">
+      <c r="F169" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="3">
+      <c r="G169" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="3">
+      <c r="H169" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="3">
+      <c r="I169" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5074,10 +5098,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K171" s="3" t="s">
+      <c r="J171" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5121,28 +5145,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="3">
+      <c r="A173" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="3">
+      <c r="B173" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D173" t="s" s="3">
+      <c r="C173" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="3">
+      <c r="E173" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="3">
+      <c r="F173" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="3">
+      <c r="G173" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="3">
+      <c r="H173" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5167,28 +5191,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="3">
+      <c r="B175" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="3">
+      <c r="C175" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="3">
+      <c r="D175" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="3">
+      <c r="E175" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="3">
+      <c r="F175" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="3">
+      <c r="G175" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="3">
+      <c r="H175" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="3">
+      <c r="I175" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5247,10 +5271,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="3" t="s">
+      <c r="J177" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5294,28 +5318,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="3">
+      <c r="A179" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="3">
+      <c r="C179" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5340,28 +5364,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="3">
+      <c r="C181" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="3">
+      <c r="D181" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="3">
+      <c r="I181" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5420,10 +5444,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="3" t="s">
+      <c r="J183" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5467,28 +5491,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="3">
+      <c r="C185" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5513,28 +5537,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5593,10 +5617,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="3" t="s">
+      <c r="J189" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5640,28 +5664,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="3">
+      <c r="A191" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="3">
+      <c r="B191" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="3">
+      <c r="C191" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="3">
+      <c r="E191" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="3">
+      <c r="F191" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="3">
+      <c r="G191" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="3">
+      <c r="H191" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5686,28 +5710,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="3">
+      <c r="C193" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="3">
+      <c r="D193" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="3">
+      <c r="I193" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5766,10 +5790,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="3" t="s">
+      <c r="J195" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5813,28 +5837,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="3">
+      <c r="A197" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="3">
+      <c r="B197" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="3">
+      <c r="C197" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="3">
+      <c r="E197" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="3">
+      <c r="F197" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="3">
+      <c r="G197" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="3">
+      <c r="H197" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5859,28 +5883,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="3">
+      <c r="B199" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="3">
+      <c r="C199" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="3">
+      <c r="D199" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="3">
+      <c r="E199" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="3">
+      <c r="F199" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="3">
+      <c r="G199" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="3">
+      <c r="H199" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="3">
+      <c r="I199" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5939,10 +5963,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K201" s="3" t="s">
+      <c r="J201" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K201" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
@@ -5986,28 +6010,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="s" s="3">
+      <c r="A203" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B203" t="s" s="3">
+      <c r="B203" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C203" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D203" t="s" s="3">
+      <c r="C203" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D203" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E203" t="s" s="3">
+      <c r="E203" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F203" t="s" s="3">
+      <c r="F203" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G203" t="s" s="3">
+      <c r="G203" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H203" t="s" s="3">
+      <c r="H203" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6032,28 +6056,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="B205" t="s" s="3">
+      <c r="B205" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C205" t="s" s="3">
+      <c r="C205" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D205" t="s" s="3">
+      <c r="D205" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E205" t="s" s="3">
+      <c r="E205" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F205" t="s" s="3">
+      <c r="F205" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G205" t="s" s="3">
+      <c r="G205" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H205" t="s" s="3">
+      <c r="H205" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I205" t="s" s="3">
+      <c r="I205" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6112,10 +6136,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="J207" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6159,28 +6183,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="3">
+      <c r="A209" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="3">
+      <c r="C209" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6205,28 +6229,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="3">
+      <c r="C211" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="3">
+      <c r="D211" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="3">
+      <c r="I211" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6285,10 +6309,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="3" t="s">
+      <c r="J213" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6332,28 +6356,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="3">
+      <c r="A215" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="3">
+      <c r="B215" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="3">
+      <c r="C215" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="3">
+      <c r="E215" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="3">
+      <c r="F215" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="3">
+      <c r="G215" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="3">
+      <c r="H215" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6378,28 +6402,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="3">
+      <c r="B217" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="3">
+      <c r="C217" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="3">
+      <c r="D217" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="3">
+      <c r="E217" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="3">
+      <c r="F217" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="3">
+      <c r="G217" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="3">
+      <c r="H217" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="3">
+      <c r="I217" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6458,10 +6482,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6505,28 +6529,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6551,28 +6575,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6631,10 +6655,10 @@
       <c r="I225">
         <f>((C225-C224)^2+(D225- D224)^2)^.5</f>
       </c>
-      <c r="J225" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K225" s="3" t="s">
+      <c r="J225" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K225" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L225" t="n">
@@ -6678,28 +6702,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="s" s="3">
+      <c r="A227" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C227" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D227" t="s" s="3">
+      <c r="C227" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D227" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6724,28 +6748,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="B229" t="s" s="3">
+      <c r="B229" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C229" t="s" s="3">
+      <c r="C229" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D229" t="s" s="3">
+      <c r="D229" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E229" t="s" s="3">
+      <c r="E229" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F229" t="s" s="3">
+      <c r="F229" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G229" t="s" s="3">
+      <c r="G229" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H229" t="s" s="3">
+      <c r="H229" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I229" t="s" s="3">
+      <c r="I229" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6804,10 +6828,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="3" t="s">
+      <c r="J231" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6851,28 +6875,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="3">
+      <c r="A233" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="3">
+      <c r="B233" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="3">
+      <c r="C233" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="3">
+      <c r="E233" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="3">
+      <c r="F233" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="3">
+      <c r="G233" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="3">
+      <c r="H233" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6897,28 +6921,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="3">
+      <c r="C235" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="3">
+      <c r="D235" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="3">
+      <c r="I235" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6977,10 +7001,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="3" t="s">
+      <c r="J237" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7024,28 +7048,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="3">
+      <c r="A239" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="3">
+      <c r="B239" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="3">
+      <c r="C239" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="3">
+      <c r="E239" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="3">
+      <c r="F239" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="3">
+      <c r="G239" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="3">
+      <c r="H239" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7070,28 +7094,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="3">
+      <c r="B241" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="3">
+      <c r="C241" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="3">
+      <c r="D241" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="3">
+      <c r="E241" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="3">
+      <c r="F241" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="3">
+      <c r="G241" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="3">
+      <c r="H241" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="3">
+      <c r="I241" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7150,10 +7174,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="3" t="s">
+      <c r="J243" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7197,28 +7221,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="3">
+      <c r="A245" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="3">
+      <c r="B245" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="3">
+      <c r="C245" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="3">
+      <c r="E245" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="3">
+      <c r="F245" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="3">
+      <c r="G245" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="3">
+      <c r="H245" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7243,28 +7267,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="3">
+      <c r="C247" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="3">
+      <c r="D247" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="3">
+      <c r="I247" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7323,10 +7347,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="3" t="s">
+      <c r="J249" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7370,28 +7394,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="3">
+      <c r="A251" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="3">
+      <c r="C251" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7416,28 +7440,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="3">
+      <c r="B253" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="3">
+      <c r="C253" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="3">
+      <c r="D253" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="3">
+      <c r="E253" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="3">
+      <c r="F253" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="3">
+      <c r="G253" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="3">
+      <c r="H253" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="3">
+      <c r="I253" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7496,10 +7520,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="3" t="s">
+      <c r="J255" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7543,28 +7567,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="3">
+      <c r="A257" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="3">
+      <c r="B257" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="3">
+      <c r="C257" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="3">
+      <c r="E257" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="3">
+      <c r="F257" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="3">
+      <c r="G257" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="3">
+      <c r="H257" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7589,28 +7613,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="3">
+      <c r="B259" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="3">
+      <c r="C259" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="3">
+      <c r="D259" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="3">
+      <c r="E259" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="3">
+      <c r="F259" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="3">
+      <c r="G259" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="3">
+      <c r="H259" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="3">
+      <c r="I259" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7669,10 +7693,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
+      <c r="J261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7716,28 +7740,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="3">
+      <c r="A263" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="3">
+      <c r="B263" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="3">
+      <c r="C263" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="3">
+      <c r="E263" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="3">
+      <c r="F263" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="3">
+      <c r="G263" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="3">
+      <c r="H263" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7762,28 +7786,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="3">
+      <c r="C265" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="3">
+      <c r="D265" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="3">
+      <c r="I265" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7842,10 +7866,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="3" t="s">
+      <c r="J267" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7889,28 +7913,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="3">
+      <c r="A269" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="3">
+      <c r="B269" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="3">
+      <c r="C269" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="3">
+      <c r="E269" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="3">
+      <c r="F269" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="3">
+      <c r="G269" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="3">
+      <c r="H269" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7935,28 +7959,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="3">
+      <c r="B271" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="3">
+      <c r="C271" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="3">
+      <c r="D271" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="3">
+      <c r="E271" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="3">
+      <c r="F271" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="3">
+      <c r="G271" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="3">
+      <c r="H271" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="3">
+      <c r="I271" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8015,10 +8039,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="3" t="s">
+      <c r="J273" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8062,28 +8086,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="3">
+      <c r="A275" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="3">
+      <c r="B275" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="3">
+      <c r="C275" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="3">
+      <c r="E275" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="3">
+      <c r="F275" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="3">
+      <c r="G275" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="3">
+      <c r="H275" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8108,28 +8132,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="3">
+      <c r="B277" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="3">
+      <c r="C277" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="3">
+      <c r="D277" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="3">
+      <c r="E277" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="3">
+      <c r="F277" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="3">
+      <c r="G277" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="3">
+      <c r="H277" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="3">
+      <c r="I277" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8188,10 +8212,10 @@
       <c r="I279">
         <f>((C279-C278)^2+(D279- D278)^2)^.5</f>
       </c>
-      <c r="J279" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K279" s="3" t="s">
+      <c r="J279" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K279" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L279" t="n">
@@ -8235,28 +8259,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="s" s="3">
+      <c r="A281" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B281" t="s" s="3">
+      <c r="B281" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C281" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D281" t="s" s="3">
+      <c r="C281" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D281" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E281" t="s" s="3">
+      <c r="E281" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F281" t="s" s="3">
+      <c r="F281" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G281" t="s" s="3">
+      <c r="G281" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H281" t="s" s="3">
+      <c r="H281" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8281,28 +8305,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="B283" t="s" s="3">
+      <c r="B283" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C283" t="s" s="3">
+      <c r="C283" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D283" t="s" s="3">
+      <c r="D283" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E283" t="s" s="3">
+      <c r="E283" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F283" t="s" s="3">
+      <c r="F283" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G283" t="s" s="3">
+      <c r="G283" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H283" t="s" s="3">
+      <c r="H283" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I283" t="s" s="3">
+      <c r="I283" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8361,10 +8385,10 @@
       <c r="I285">
         <f>((C285-C284)^2+(D285- D284)^2)^.5</f>
       </c>
-      <c r="J285" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K285" s="3" t="s">
+      <c r="J285" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K285" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L285" t="n">
@@ -8408,28 +8432,28 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="s" s="3">
+      <c r="A287" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B287" t="s" s="3">
+      <c r="B287" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C287" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D287" t="s" s="3">
+      <c r="C287" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D287" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E287" t="s" s="3">
+      <c r="E287" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F287" t="s" s="3">
+      <c r="F287" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G287" t="s" s="3">
+      <c r="G287" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H287" t="s" s="3">
+      <c r="H287" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8454,28 +8478,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="B289" t="s" s="3">
+      <c r="B289" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C289" t="s" s="3">
+      <c r="C289" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D289" t="s" s="3">
+      <c r="D289" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E289" t="s" s="3">
+      <c r="E289" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F289" t="s" s="3">
+      <c r="F289" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G289" t="s" s="3">
+      <c r="G289" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H289" t="s" s="3">
+      <c r="H289" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I289" t="s" s="3">
+      <c r="I289" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8534,10 +8558,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="3" t="s">
+      <c r="J291" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
@@ -8581,28 +8605,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="s" s="3">
+      <c r="A293" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B293" t="s" s="3">
+      <c r="B293" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C293" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D293" t="s" s="3">
+      <c r="C293" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D293" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E293" t="s" s="3">
+      <c r="E293" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F293" t="s" s="3">
+      <c r="F293" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G293" t="s" s="3">
+      <c r="G293" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H293" t="s" s="3">
+      <c r="H293" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8627,28 +8651,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="B295" t="s" s="3">
+      <c r="B295" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C295" t="s" s="3">
+      <c r="C295" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D295" t="s" s="3">
+      <c r="D295" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E295" t="s" s="3">
+      <c r="E295" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F295" t="s" s="3">
+      <c r="F295" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G295" t="s" s="3">
+      <c r="G295" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H295" t="s" s="3">
+      <c r="H295" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I295" t="s" s="3">
+      <c r="I295" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8707,10 +8731,10 @@
       <c r="I297">
         <f>((C297-C296)^2+(D297- D296)^2)^.5</f>
       </c>
-      <c r="J297" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K297" s="3" t="s">
+      <c r="J297" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K297" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L297" t="n">
@@ -8754,28 +8778,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="s" s="3">
+      <c r="A299" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B299" t="s" s="3">
+      <c r="B299" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C299" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D299" t="s" s="3">
+      <c r="C299" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D299" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E299" t="s" s="3">
+      <c r="E299" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F299" t="s" s="3">
+      <c r="F299" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G299" t="s" s="3">
+      <c r="G299" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H299" t="s" s="3">
+      <c r="H299" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8800,28 +8824,28 @@
       </c>
     </row>
     <row r="301">
-      <c r="B301" t="s" s="3">
+      <c r="B301" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C301" t="s" s="3">
+      <c r="C301" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D301" t="s" s="3">
+      <c r="D301" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E301" t="s" s="3">
+      <c r="E301" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F301" t="s" s="3">
+      <c r="F301" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G301" t="s" s="3">
+      <c r="G301" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H301" t="s" s="3">
+      <c r="H301" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I301" t="s" s="3">
+      <c r="I301" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8880,10 +8904,10 @@
       <c r="I303">
         <f>((C303-C302)^2+(D303- D302)^2)^.5</f>
       </c>
-      <c r="J303" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K303" s="3" t="s">
+      <c r="J303" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K303" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L303" t="n">
@@ -8927,28 +8951,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="s" s="3">
+      <c r="A305" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B305" t="s" s="3">
+      <c r="B305" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C305" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D305" t="s" s="3">
+      <c r="C305" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D305" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E305" t="s" s="3">
+      <c r="E305" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F305" t="s" s="3">
+      <c r="F305" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G305" t="s" s="3">
+      <c r="G305" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H305" t="s" s="3">
+      <c r="H305" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8973,28 +8997,28 @@
       </c>
     </row>
     <row r="307">
-      <c r="B307" t="s" s="3">
+      <c r="B307" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C307" t="s" s="3">
+      <c r="C307" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D307" t="s" s="3">
+      <c r="D307" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E307" t="s" s="3">
+      <c r="E307" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F307" t="s" s="3">
+      <c r="F307" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G307" t="s" s="3">
+      <c r="G307" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H307" t="s" s="3">
+      <c r="H307" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I307" t="s" s="3">
+      <c r="I307" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9053,10 +9077,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="3" t="s">
+      <c r="J309" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9100,28 +9124,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="3">
+      <c r="A311" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="3">
+      <c r="B311" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="3">
+      <c r="C311" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="3">
+      <c r="E311" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="3">
+      <c r="F311" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="3">
+      <c r="G311" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="3">
+      <c r="H311" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9146,28 +9170,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="3">
+      <c r="B313" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="3">
+      <c r="C313" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="3">
+      <c r="D313" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="3">
+      <c r="E313" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="3">
+      <c r="F313" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="3">
+      <c r="G313" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="3">
+      <c r="H313" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="3">
+      <c r="I313" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9226,10 +9250,10 @@
       <c r="I315">
         <f>((C315-C314)^2+(D315- D314)^2)^.5</f>
       </c>
-      <c r="J315" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K315" s="3" t="s">
+      <c r="J315" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K315" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L315" t="n">
@@ -9273,28 +9297,28 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="s" s="3">
+      <c r="A317" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B317" t="s" s="3">
+      <c r="B317" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C317" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D317" t="s" s="3">
+      <c r="C317" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D317" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E317" t="s" s="3">
+      <c r="E317" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F317" t="s" s="3">
+      <c r="F317" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G317" t="s" s="3">
+      <c r="G317" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H317" t="s" s="3">
+      <c r="H317" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9319,28 +9343,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="B319" t="s" s="3">
+      <c r="B319" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C319" t="s" s="3">
+      <c r="C319" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D319" t="s" s="3">
+      <c r="D319" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E319" t="s" s="3">
+      <c r="E319" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F319" t="s" s="3">
+      <c r="F319" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G319" t="s" s="3">
+      <c r="G319" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H319" t="s" s="3">
+      <c r="H319" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I319" t="s" s="3">
+      <c r="I319" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9399,10 +9423,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="3" t="s">
+      <c r="J321" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9446,28 +9470,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="3">
+      <c r="A323" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="3">
+      <c r="B323" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="3">
+      <c r="C323" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="3">
+      <c r="E323" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="3">
+      <c r="F323" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="3">
+      <c r="G323" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="3">
+      <c r="H323" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9492,28 +9516,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="3">
+      <c r="B325" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="3">
+      <c r="C325" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="3">
+      <c r="D325" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="3">
+      <c r="E325" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="3">
+      <c r="F325" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="3">
+      <c r="G325" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="3">
+      <c r="H325" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="3">
+      <c r="I325" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9572,10 +9596,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="3" t="s">
+      <c r="J327" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9619,28 +9643,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="3">
+      <c r="A329" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="3">
+      <c r="B329" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="3">
+      <c r="C329" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="3">
+      <c r="E329" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="3">
+      <c r="F329" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="3">
+      <c r="G329" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="3">
+      <c r="H329" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9665,28 +9689,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="3">
+      <c r="B331" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="3">
+      <c r="C331" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="3">
+      <c r="D331" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="3">
+      <c r="E331" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="3">
+      <c r="F331" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="3">
+      <c r="G331" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="3">
+      <c r="H331" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="3">
+      <c r="I331" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9745,10 +9769,10 @@
       <c r="I333">
         <f>((C333-C332)^2+(D333- D332)^2)^.5</f>
       </c>
-      <c r="J333" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K333" s="3" t="s">
+      <c r="J333" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K333" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L333" t="n">
@@ -9792,28 +9816,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="s" s="3">
+      <c r="A335" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B335" t="s" s="3">
+      <c r="B335" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C335" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D335" t="s" s="3">
+      <c r="C335" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D335" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E335" t="s" s="3">
+      <c r="E335" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F335" t="s" s="3">
+      <c r="F335" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G335" t="s" s="3">
+      <c r="G335" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H335" t="s" s="3">
+      <c r="H335" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9838,28 +9862,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="B337" t="s" s="3">
+      <c r="B337" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C337" t="s" s="3">
+      <c r="C337" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D337" t="s" s="3">
+      <c r="D337" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E337" t="s" s="3">
+      <c r="E337" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F337" t="s" s="3">
+      <c r="F337" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G337" t="s" s="3">
+      <c r="G337" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H337" t="s" s="3">
+      <c r="H337" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I337" t="s" s="3">
+      <c r="I337" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9918,10 +9942,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="3" t="s">
+      <c r="J339" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9965,28 +9989,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="3">
+      <c r="A341" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="3">
+      <c r="B341" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="3">
+      <c r="C341" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="3">
+      <c r="E341" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="3">
+      <c r="F341" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="3">
+      <c r="G341" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="3">
+      <c r="H341" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10011,28 +10035,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="3">
+      <c r="B343" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="3">
+      <c r="C343" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="3">
+      <c r="D343" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="3">
+      <c r="E343" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="3">
+      <c r="F343" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="3">
+      <c r="G343" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="3">
+      <c r="H343" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="3">
+      <c r="I343" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10091,10 +10115,10 @@
       <c r="I345">
         <f>((C345-C344)^2+(D345- D344)^2)^.5</f>
       </c>
-      <c r="J345" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K345" s="3" t="s">
+      <c r="J345" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K345" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L345" t="n">
@@ -10138,28 +10162,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="s" s="3">
+      <c r="A347" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B347" t="s" s="3">
+      <c r="B347" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C347" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D347" t="s" s="3">
+      <c r="C347" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D347" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E347" t="s" s="3">
+      <c r="E347" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F347" t="s" s="3">
+      <c r="F347" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G347" t="s" s="3">
+      <c r="G347" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H347" t="s" s="3">
+      <c r="H347" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10184,28 +10208,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="B349" t="s" s="3">
+      <c r="B349" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C349" t="s" s="3">
+      <c r="C349" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D349" t="s" s="3">
+      <c r="D349" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E349" t="s" s="3">
+      <c r="E349" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F349" t="s" s="3">
+      <c r="F349" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G349" t="s" s="3">
+      <c r="G349" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H349" t="s" s="3">
+      <c r="H349" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I349" t="s" s="3">
+      <c r="I349" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10264,10 +10288,10 @@
       <c r="I351">
         <f>((C351-C350)^2+(D351- D350)^2)^.5</f>
       </c>
-      <c r="J351" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K351" s="3" t="s">
+      <c r="J351" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K351" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L351" t="n">
@@ -10311,28 +10335,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="s" s="3">
+      <c r="A353" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B353" t="s" s="3">
+      <c r="B353" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C353" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D353" t="s" s="3">
+      <c r="C353" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D353" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E353" t="s" s="3">
+      <c r="E353" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F353" t="s" s="3">
+      <c r="F353" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G353" t="s" s="3">
+      <c r="G353" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H353" t="s" s="3">
+      <c r="H353" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10357,28 +10381,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="B355" t="s" s="3">
+      <c r="B355" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C355" t="s" s="3">
+      <c r="C355" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D355" t="s" s="3">
+      <c r="D355" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E355" t="s" s="3">
+      <c r="E355" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F355" t="s" s="3">
+      <c r="F355" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G355" t="s" s="3">
+      <c r="G355" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H355" t="s" s="3">
+      <c r="H355" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I355" t="s" s="3">
+      <c r="I355" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10437,10 +10461,10 @@
       <c r="I357">
         <f>((C357-C356)^2+(D357- D356)^2)^.5</f>
       </c>
-      <c r="J357" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K357" s="3" t="s">
+      <c r="J357" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K357" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L357" t="n">
@@ -10484,28 +10508,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="s" s="3">
+      <c r="A359" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B359" t="s" s="3">
+      <c r="B359" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C359" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D359" t="s" s="3">
+      <c r="C359" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D359" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E359" t="s" s="3">
+      <c r="E359" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F359" t="s" s="3">
+      <c r="F359" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G359" t="s" s="3">
+      <c r="G359" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H359" t="s" s="3">
+      <c r="H359" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10530,28 +10554,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="B361" t="s" s="3">
+      <c r="B361" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C361" t="s" s="3">
+      <c r="C361" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D361" t="s" s="3">
+      <c r="D361" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E361" t="s" s="3">
+      <c r="E361" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F361" t="s" s="3">
+      <c r="F361" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G361" t="s" s="3">
+      <c r="G361" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H361" t="s" s="3">
+      <c r="H361" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I361" t="s" s="3">
+      <c r="I361" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10610,10 +10634,10 @@
       <c r="I363">
         <f>((C363-C362)^2+(D363- D362)^2)^.5</f>
       </c>
-      <c r="J363" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K363" s="3" t="s">
+      <c r="J363" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K363" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L363" t="n">
@@ -10657,28 +10681,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="s" s="3">
+      <c r="A365" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B365" t="s" s="3">
+      <c r="B365" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C365" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D365" t="s" s="3">
+      <c r="C365" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D365" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E365" t="s" s="3">
+      <c r="E365" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F365" t="s" s="3">
+      <c r="F365" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G365" t="s" s="3">
+      <c r="G365" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H365" t="s" s="3">
+      <c r="H365" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10703,28 +10727,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="B367" t="s" s="3">
+      <c r="B367" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C367" t="s" s="3">
+      <c r="C367" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D367" t="s" s="3">
+      <c r="D367" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E367" t="s" s="3">
+      <c r="E367" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F367" t="s" s="3">
+      <c r="F367" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G367" t="s" s="3">
+      <c r="G367" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H367" t="s" s="3">
+      <c r="H367" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I367" t="s" s="3">
+      <c r="I367" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10783,10 +10807,10 @@
       <c r="I369">
         <f>((C369-C368)^2+(D369- D368)^2)^.5</f>
       </c>
-      <c r="J369" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K369" s="3" t="s">
+      <c r="J369" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K369" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L369" t="n">
@@ -10830,28 +10854,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="s" s="3">
+      <c r="A371" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B371" t="s" s="3">
+      <c r="B371" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C371" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D371" t="s" s="3">
+      <c r="C371" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D371" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E371" t="s" s="3">
+      <c r="E371" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F371" t="s" s="3">
+      <c r="F371" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G371" t="s" s="3">
+      <c r="G371" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H371" t="s" s="3">
+      <c r="H371" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10876,28 +10900,28 @@
       </c>
     </row>
     <row r="373">
-      <c r="B373" t="s" s="3">
+      <c r="B373" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C373" t="s" s="3">
+      <c r="C373" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D373" t="s" s="3">
+      <c r="D373" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E373" t="s" s="3">
+      <c r="E373" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F373" t="s" s="3">
+      <c r="F373" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G373" t="s" s="3">
+      <c r="G373" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H373" t="s" s="3">
+      <c r="H373" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I373" t="s" s="3">
+      <c r="I373" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10956,10 +10980,10 @@
       <c r="I375">
         <f>((C375-C374)^2+(D375- D374)^2)^.5</f>
       </c>
-      <c r="J375" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K375" s="3" t="s">
+      <c r="J375" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K375" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L375" t="n">
@@ -11003,28 +11027,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="s" s="3">
+      <c r="A377" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B377" t="s" s="3">
+      <c r="B377" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C377" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D377" t="s" s="3">
+      <c r="C377" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D377" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E377" t="s" s="3">
+      <c r="E377" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F377" t="s" s="3">
+      <c r="F377" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G377" t="s" s="3">
+      <c r="G377" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H377" t="s" s="3">
+      <c r="H377" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -11049,28 +11073,28 @@
       </c>
     </row>
     <row r="379">
-      <c r="B379" t="s" s="3">
+      <c r="B379" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C379" t="s" s="3">
+      <c r="C379" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D379" t="s" s="3">
+      <c r="D379" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E379" t="s" s="3">
+      <c r="E379" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F379" t="s" s="3">
+      <c r="F379" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G379" t="s" s="3">
+      <c r="G379" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H379" t="s" s="3">
+      <c r="H379" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I379" t="s" s="3">
+      <c r="I379" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -11129,10 +11153,10 @@
       <c r="I381">
         <f>((C381-C380)^2+(D381- D380)^2)^.5</f>
       </c>
-      <c r="J381" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K381" s="3" t="s">
+      <c r="J381" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K381" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L381" t="n">
